--- a/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_2_Stand_08.01.2024.xlsx
+++ b/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_2_Stand_08.01.2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\001149\Documents\group-02\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5 AHEL\Autonomes_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207A189-F849-4BE2-BA89-2762E8F4EBB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179E6F94-A37C-4E71-8DCC-3F35FC50291A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="643" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="643" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="244">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>Einen Code entwickelt der die Sensordaten stabil erfasst, erfolgreich</t>
+  </si>
+  <si>
+    <t>Stabile Sensordatenerfassung auf den Seiten(erfolgreich), Stabile Sensordatenerfassung Mitte(nicht erfolgreich)</t>
   </si>
 </sst>
 </file>
@@ -1897,12 +1900,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1911,36 +1944,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2451,14 +2454,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2507,10 +2510,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="120"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2521,8 +2524,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2533,8 +2536,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2545,8 +2548,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2557,8 +2560,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2579,49 +2582,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2634,64 +2637,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123" t="s">
+      <c r="A27" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123" t="s">
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2702,16 +2715,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2723,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3070,11 +3073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="129" t="s">
@@ -3921,16 +3924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6159,8 +6162,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,10 +6401,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>45306</v>
+      </c>
+      <c r="B23" s="41">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
